--- a/null.xlsx
+++ b/null.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="188">
   <si>
     <t>lp-n</t>
   </si>
@@ -154,6 +154,9 @@
     <t>bsmtFin-b</t>
   </si>
   <si>
+    <t>bsmtNON-b</t>
+  </si>
+  <si>
     <t>gr-bl-n</t>
   </si>
   <si>
@@ -187,9 +190,18 @@
     <t>feat-c</t>
   </si>
   <si>
+    <t>featHospital-b</t>
+  </si>
+  <si>
     <t>featPark-b</t>
   </si>
   <si>
+    <t>featPublicTransit-b</t>
+  </si>
+  <si>
+    <t>featSchool-b</t>
+  </si>
+  <si>
     <t>constr-c</t>
   </si>
   <si>
@@ -205,6 +217,18 @@
     <t>fce-c</t>
   </si>
   <si>
+    <t>fceE-b</t>
+  </si>
+  <si>
+    <t>fceN-b</t>
+  </si>
+  <si>
+    <t>fceS-b</t>
+  </si>
+  <si>
+    <t>fceW-b</t>
+  </si>
+  <si>
     <t>sqft-bl-n</t>
   </si>
   <si>
@@ -214,253 +238,346 @@
     <t>sqft-n</t>
   </si>
   <si>
+    <t>bltYr-bl-n</t>
+  </si>
+  <si>
+    <t>bltYr-blm-n</t>
+  </si>
+  <si>
     <t>bltYr-n</t>
   </si>
   <si>
+    <t>park_fac-c</t>
+  </si>
+  <si>
+    <t>fce_W</t>
+  </si>
+  <si>
+    <t>pvt_ent_N</t>
+  </si>
+  <si>
+    <t>sp</t>
+  </si>
+  <si>
+    <t>fce_SE</t>
+  </si>
+  <si>
+    <t>fce_E</t>
+  </si>
+  <si>
+    <t>water_inc_N</t>
+  </si>
+  <si>
+    <t>hydro_inc_N</t>
+  </si>
+  <si>
+    <t>park_fac_Mutual</t>
+  </si>
+  <si>
+    <t>laundry_lev_Upper</t>
+  </si>
+  <si>
+    <t>lkr_Ensuite+Owned</t>
+  </si>
+  <si>
+    <t>ptype2-l-c</t>
+  </si>
+  <si>
+    <t>gatp_Built-In</t>
+  </si>
+  <si>
+    <t>park_fac_Surface</t>
+  </si>
+  <si>
+    <t>ac_None</t>
+  </si>
+  <si>
     <t>rmSqft</t>
   </si>
   <si>
+    <t>all_inc_N</t>
+  </si>
+  <si>
+    <t>heat_Radiant</t>
+  </si>
+  <si>
+    <t>lst_Dft</t>
+  </si>
+  <si>
+    <t>ac_Wall Unit</t>
+  </si>
+  <si>
+    <t>heat_inc_N</t>
+  </si>
+  <si>
+    <t>heat_Other</t>
+  </si>
+  <si>
+    <t>park_fac_Other</t>
+  </si>
+  <si>
+    <t>park_fac_None</t>
+  </si>
+  <si>
+    <t>comel_inc-b</t>
+  </si>
+  <si>
+    <t>den_fr_N</t>
+  </si>
+  <si>
+    <t>fce_SW</t>
+  </si>
+  <si>
+    <t>heat_Fan Coil</t>
+  </si>
+  <si>
+    <t>mfee-bl-n</t>
+  </si>
+  <si>
+    <t>ptp_Condo Apt</t>
+  </si>
+  <si>
+    <t>heat_inc_Y</t>
+  </si>
+  <si>
+    <t>lst_Sld</t>
+  </si>
+  <si>
+    <t>rmBltYr</t>
+  </si>
+  <si>
+    <t>zip-c</t>
+  </si>
+  <si>
+    <t>ac_Central Air</t>
+  </si>
+  <si>
+    <t>laundry-c</t>
+  </si>
+  <si>
+    <t>lp</t>
+  </si>
+  <si>
+    <t>prkg_inc_Y</t>
+  </si>
+  <si>
+    <t>cac_inc_N</t>
+  </si>
+  <si>
+    <t>lkr_Owned</t>
+  </si>
+  <si>
+    <t>pvt_ent_Y</t>
+  </si>
+  <si>
+    <t>prkg_inc-b</t>
+  </si>
+  <si>
+    <t>lkr_Ensuite</t>
+  </si>
+  <si>
+    <t>offD</t>
+  </si>
+  <si>
+    <t>fce_NE</t>
+  </si>
+  <si>
+    <t>heat_Forced Air</t>
+  </si>
+  <si>
+    <t>fce_Ns</t>
+  </si>
+  <si>
+    <t>lst-c</t>
+  </si>
+  <si>
+    <t>heat_Heat Pump</t>
+  </si>
+  <si>
+    <t>ptp_Co-Op Apt</t>
+  </si>
+  <si>
+    <t>den_fr_Y</t>
+  </si>
+  <si>
+    <t>offD-year-n</t>
+  </si>
+  <si>
+    <t>park_fac_Private</t>
+  </si>
+  <si>
+    <t>water_inc_Y</t>
+  </si>
+  <si>
+    <t>laundry_In Area</t>
+  </si>
+  <si>
+    <t>laundry_None</t>
+  </si>
+  <si>
+    <t>laundry-lndryEnsuite-b</t>
+  </si>
+  <si>
     <t>fce_N</t>
   </si>
   <si>
+    <t>comel_inc_N</t>
+  </si>
+  <si>
+    <t>heat_Baseboard</t>
+  </si>
+  <si>
+    <t>laundry_Ensuite</t>
+  </si>
+  <si>
+    <t>offD-season-n</t>
+  </si>
+  <si>
+    <t>pets-n</t>
+  </si>
+  <si>
+    <t>sldd-dom-n</t>
+  </si>
+  <si>
+    <t>gatp_Detached</t>
+  </si>
+  <si>
+    <t>fce_Nw</t>
+  </si>
+  <si>
+    <t>offD-month-n</t>
+  </si>
+  <si>
+    <t>laundry_lev_Lower</t>
+  </si>
+  <si>
+    <t>pets_Restrict</t>
+  </si>
+  <si>
+    <t>laundry_Shared</t>
+  </si>
+  <si>
+    <t>laundry_lev_Main</t>
+  </si>
+  <si>
+    <t>daddr_N</t>
+  </si>
+  <si>
+    <t>insur_bldg_N</t>
+  </si>
+  <si>
+    <t>fce_Ne</t>
+  </si>
+  <si>
+    <t>sldd</t>
+  </si>
+  <si>
+    <t>laundry_lev-n</t>
+  </si>
+  <si>
+    <t>mfee-blm-n</t>
+  </si>
+  <si>
+    <t>hydro_inc_Y</t>
+  </si>
+  <si>
+    <t>heat_Water</t>
+  </si>
+  <si>
+    <t>all_inc_Y</t>
+  </si>
+  <si>
+    <t>lkr-c</t>
+  </si>
+  <si>
+    <t>daddr_Y</t>
+  </si>
+  <si>
+    <t>ptp_Comm Element Condo</t>
+  </si>
+  <si>
+    <t>park_fac_Facilities</t>
+  </si>
+  <si>
+    <t>fce_Se</t>
+  </si>
+  <si>
+    <t>cac_inc_Y</t>
+  </si>
+  <si>
+    <t>prkg_inc_N</t>
+  </si>
+  <si>
+    <t>fce_EW</t>
+  </si>
+  <si>
     <t>fce_NW</t>
   </si>
   <si>
+    <t>gatp_Carport</t>
+  </si>
+  <si>
+    <t>gatp_Other</t>
+  </si>
+  <si>
+    <t>rltr-c</t>
+  </si>
+  <si>
+    <t>park_fac_Undergrnd</t>
+  </si>
+  <si>
+    <t>insur_bldg-b</t>
+  </si>
+  <si>
+    <t>insur_bldg_Y</t>
+  </si>
+  <si>
+    <t>gatp_Surface</t>
+  </si>
+  <si>
+    <t>ac_Window Unit</t>
+  </si>
+  <si>
+    <t>gatp_Attached</t>
+  </si>
+  <si>
+    <t>status_U</t>
+  </si>
+  <si>
+    <t>comel_inc_Y</t>
+  </si>
+  <si>
+    <t>pets_N</t>
+  </si>
+  <si>
+    <t>lkr_Common</t>
+  </si>
+  <si>
+    <t>fce_Sw</t>
+  </si>
+  <si>
+    <t>gatp_None</t>
+  </si>
+  <si>
+    <t>lkr_Ensuite+Exclusive</t>
+  </si>
+  <si>
+    <t>lkr_None</t>
+  </si>
+  <si>
+    <t>ac_Other</t>
+  </si>
+  <si>
+    <t>gatp_Undergrnd</t>
+  </si>
+  <si>
+    <t>lkr_Exclusive</t>
+  </si>
+  <si>
     <t>fce_Ew</t>
   </si>
   <si>
-    <t>hydro_inc_N</t>
-  </si>
-  <si>
-    <t>fce_Nw</t>
-  </si>
-  <si>
-    <t>gatp_None</t>
-  </si>
-  <si>
-    <t>prkg_inc_N</t>
-  </si>
-  <si>
-    <t>offD-season-n</t>
-  </si>
-  <si>
-    <t>cac_inc_N</t>
-  </si>
-  <si>
-    <t>gatp_Other</t>
-  </si>
-  <si>
-    <t>gatp_Undergrnd</t>
-  </si>
-  <si>
-    <t>fce_NE</t>
-  </si>
-  <si>
-    <t>den_fr_Y</t>
-  </si>
-  <si>
-    <t>gatp_Carport</t>
-  </si>
-  <si>
-    <t>gatp_Detached</t>
-  </si>
-  <si>
-    <t>sldd-dom-n</t>
-  </si>
-  <si>
-    <t>fce_Se</t>
-  </si>
-  <si>
-    <t>lst_Sld</t>
-  </si>
-  <si>
-    <t>laundry_lev_Upper</t>
-  </si>
-  <si>
-    <t>daddr_Y</t>
-  </si>
-  <si>
-    <t>zip-c</t>
-  </si>
-  <si>
-    <t>laundry_lev_Main</t>
-  </si>
-  <si>
-    <t>offD</t>
-  </si>
-  <si>
-    <t>gatp_Surface</t>
-  </si>
-  <si>
-    <t>rltr-c</t>
-  </si>
-  <si>
-    <t>lst-c</t>
-  </si>
-  <si>
     <t>fce_S</t>
-  </si>
-  <si>
-    <t>all_inc_Y</t>
-  </si>
-  <si>
-    <t>fce_SW</t>
-  </si>
-  <si>
-    <t>fce_E</t>
-  </si>
-  <si>
-    <t>heat_Water</t>
-  </si>
-  <si>
-    <t>mfee-blm-n</t>
-  </si>
-  <si>
-    <t>heat_Radiant</t>
-  </si>
-  <si>
-    <t>fce_SE</t>
-  </si>
-  <si>
-    <t>ac_Other</t>
-  </si>
-  <si>
-    <t>comel_inc_Y</t>
-  </si>
-  <si>
-    <t>hydro_inc_Y</t>
-  </si>
-  <si>
-    <t>fce_EW</t>
-  </si>
-  <si>
-    <t>gatp_Built-In</t>
-  </si>
-  <si>
-    <t>gatp_Attached</t>
-  </si>
-  <si>
-    <t>heat_Baseboard</t>
-  </si>
-  <si>
-    <t>pets-n</t>
-  </si>
-  <si>
-    <t>ptp_Co-Op Apt</t>
-  </si>
-  <si>
-    <t>heat_Heat Pump</t>
-  </si>
-  <si>
-    <t>comel_inc_N</t>
-  </si>
-  <si>
-    <t>heat_Fan Coil</t>
-  </si>
-  <si>
-    <t>cac_inc_Y</t>
-  </si>
-  <si>
-    <t>heat_Other</t>
-  </si>
-  <si>
-    <t>status_U</t>
-  </si>
-  <si>
-    <t>insur_bldg-b</t>
-  </si>
-  <si>
-    <t>sldd</t>
-  </si>
-  <si>
-    <t>offD-year-n</t>
-  </si>
-  <si>
-    <t>fce_Ns</t>
-  </si>
-  <si>
-    <t>ac_Central Air</t>
-  </si>
-  <si>
-    <t>lp</t>
-  </si>
-  <si>
-    <t>water_inc_N</t>
-  </si>
-  <si>
-    <t>heat_inc_Y</t>
-  </si>
-  <si>
-    <t>ptp_Comm Element Condo</t>
-  </si>
-  <si>
-    <t>den_fr_N</t>
-  </si>
-  <si>
-    <t>ptp_Condo Apt</t>
-  </si>
-  <si>
-    <t>ptype2-l-c</t>
-  </si>
-  <si>
-    <t>ac_Wall Unit</t>
-  </si>
-  <si>
-    <t>prkg_inc-b</t>
-  </si>
-  <si>
-    <t>fce_Ne</t>
-  </si>
-  <si>
-    <t>ac_None</t>
-  </si>
-  <si>
-    <t>sp</t>
-  </si>
-  <si>
-    <t>fce_Sw</t>
-  </si>
-  <si>
-    <t>prkg_inc_Y</t>
-  </si>
-  <si>
-    <t>all_inc_N</t>
-  </si>
-  <si>
-    <t>mfee-bl-n</t>
-  </si>
-  <si>
-    <t>comel_inc-b</t>
-  </si>
-  <si>
-    <t>offD-month-n</t>
-  </si>
-  <si>
-    <t>heat_inc_N</t>
-  </si>
-  <si>
-    <t>ac_Window Unit</t>
-  </si>
-  <si>
-    <t>heat_Forced Air</t>
-  </si>
-  <si>
-    <t>fce_W</t>
-  </si>
-  <si>
-    <t>laundry_lev_Lower</t>
-  </si>
-  <si>
-    <t>laundry_lev-n</t>
-  </si>
-  <si>
-    <t>lst_Dft</t>
-  </si>
-  <si>
-    <t>daddr_N</t>
-  </si>
-  <si>
-    <t>water_inc_Y</t>
   </si>
 </sst>
 </file>
@@ -818,7 +935,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B150"/>
+  <dimension ref="A1:B189"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2021,6 +2138,318 @@
         <v>0</v>
       </c>
     </row>
+    <row r="151" spans="1:2">
+      <c r="A151" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2">
+      <c r="A152" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2">
+      <c r="A153" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2">
+      <c r="A154" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2">
+      <c r="A155" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2">
+      <c r="A156" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2">
+      <c r="A157" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2">
+      <c r="A158" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2">
+      <c r="A159" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2">
+      <c r="A160" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2">
+      <c r="A161" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2">
+      <c r="A162" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2">
+      <c r="A163" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2">
+      <c r="A164" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2">
+      <c r="A165" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2">
+      <c r="A166" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2">
+      <c r="A167" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2">
+      <c r="A168" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2">
+      <c r="A169" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2">
+      <c r="A170" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2">
+      <c r="A171" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2">
+      <c r="A172" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2">
+      <c r="A173" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2">
+      <c r="A174" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2">
+      <c r="A175" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2">
+      <c r="A176" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2">
+      <c r="A177" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2">
+      <c r="A178" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2">
+      <c r="A179" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2">
+      <c r="A180" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2">
+      <c r="A181" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2">
+      <c r="A182" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2">
+      <c r="A183" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2">
+      <c r="A184" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2">
+      <c r="A185" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2">
+      <c r="A186" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2">
+      <c r="A187" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2">
+      <c r="A188" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2">
+      <c r="A189" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B189">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
